--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_18.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,88 +488,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.38, 21.84)]</t>
+          <t>[('0:01:04.300000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -573,403 +580,416 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[('0:00:55.840000', '0:01:05.040000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.56, 25.4)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[('0:00:08.460000', '0:00:13.460000'), ('0:00:00.240000', '0:00:05.080000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:24', '0:01:30.840000'), ('0:00:13.740000', '0:00:22.560000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[('0:01:14.180000', '0:01:27.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (69.24, 75.88)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:01:34.680000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:11', '0:00:16.520000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(22.94, 32.42)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[('0:00:03.340000', '0:00:06.820000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(7.14, 22.68)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[('0:00:12.820000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:02.360000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -978,227 +998,178 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.38, 21.84)]</t>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
